--- a/data/trans_orig/Q4504_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>106948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>88737</v>
+        <v>89689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126581</v>
+        <v>124790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2257346113712295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1872973303995367</v>
+        <v>0.1893066496073682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2671757915080712</v>
+        <v>0.2633944932777506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -764,19 +764,19 @@
         <v>75374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61540</v>
+        <v>60344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91699</v>
+        <v>92665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2467644091789873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2014750016939471</v>
+        <v>0.1975596637096907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3002115768496669</v>
+        <v>0.3033732601779585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -785,19 +785,19 @@
         <v>182322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160277</v>
+        <v>158547</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208274</v>
+        <v>207066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2339781014801088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2056869917063794</v>
+        <v>0.2034677149250605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2672827671405383</v>
+        <v>0.2657323718624996</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>134988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114631</v>
+        <v>116159</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156790</v>
+        <v>156715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2849186253821441</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2419527070479621</v>
+        <v>0.2451777624546289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3309368889044687</v>
+        <v>0.3307779343589671</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -835,19 +835,19 @@
         <v>85844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71451</v>
+        <v>70549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103570</v>
+        <v>103182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2810426062777834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2339200973749513</v>
+        <v>0.2309689071525263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3390744387263768</v>
+        <v>0.3378048813311788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>215</v>
@@ -856,19 +856,19 @@
         <v>220832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193020</v>
+        <v>194858</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245811</v>
+        <v>244884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2833992610287295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2477077973318164</v>
+        <v>0.2500663004388079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3154548126666016</v>
+        <v>0.3142655828441123</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>119592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100303</v>
+        <v>102145</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138521</v>
+        <v>139163</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2524234825754229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2117087609516456</v>
+        <v>0.2155967034703181</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2923772504089944</v>
+        <v>0.2937313967458396</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -906,19 +906,19 @@
         <v>89002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74721</v>
+        <v>74851</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>106871</v>
+        <v>105177</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2913810277298658</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2446268186786538</v>
+        <v>0.2450523583298133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3498802328219601</v>
+        <v>0.3443364786946371</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>202</v>
@@ -927,19 +927,19 @@
         <v>208595</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185734</v>
+        <v>184866</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>236416</v>
+        <v>235642</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2676944871320334</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2383565811642163</v>
+        <v>0.2372429759816351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3033988727217154</v>
+        <v>0.3024047360913795</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>35617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24865</v>
+        <v>25072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50689</v>
+        <v>49797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07517672123345995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05248272109526777</v>
+        <v>0.05292051967064155</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1069894207483758</v>
+        <v>0.1051062050390043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -977,19 +977,19 @@
         <v>12367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6047</v>
+        <v>6350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19564</v>
+        <v>20217</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04048763850690003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01979628465280216</v>
+        <v>0.02078836183230179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06404910568252259</v>
+        <v>0.06618738014286171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -998,19 +998,19 @@
         <v>47984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35619</v>
+        <v>36438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64453</v>
+        <v>63709</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06157891525564869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04571045514793379</v>
+        <v>0.04676200249949349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08271414570087066</v>
+        <v>0.08175972357932891</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>76632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62637</v>
+        <v>61666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95375</v>
+        <v>93224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1617465594377436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1322087367307807</v>
+        <v>0.1301576204508164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2013089312878799</v>
+        <v>0.1967683423584044</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -1048,19 +1048,19 @@
         <v>42862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31892</v>
+        <v>31535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55424</v>
+        <v>54862</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1403243183064634</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1044088896817161</v>
+        <v>0.1032417467438606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1814517328517695</v>
+        <v>0.1796114045181594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -1069,19 +1069,19 @@
         <v>119494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100894</v>
+        <v>100704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140129</v>
+        <v>140658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1533492351034797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1294795507218485</v>
+        <v>0.1292364442758545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1798307586448142</v>
+        <v>0.1805098085524764</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>80235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65134</v>
+        <v>62845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99485</v>
+        <v>98200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2186640013023321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1775099846781956</v>
+        <v>0.1712702822132695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2711249962496741</v>
+        <v>0.2676224478281788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1194,19 +1194,19 @@
         <v>92002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75088</v>
+        <v>74626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109875</v>
+        <v>108596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.248172389824433</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2025459530915132</v>
+        <v>0.2013004328749649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2963835274256373</v>
+        <v>0.2929322922879694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -1215,19 +1215,19 @@
         <v>172237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151055</v>
+        <v>149371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196281</v>
+        <v>197190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2334939041791989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2047782873459645</v>
+        <v>0.2024951510730524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2660891000098708</v>
+        <v>0.2673210104739405</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>82131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66997</v>
+        <v>66752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101777</v>
+        <v>100030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.223831347625287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1825850112923418</v>
+        <v>0.1819184780094245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.277372470142989</v>
+        <v>0.2726092545553407</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -1265,19 +1265,19 @@
         <v>83333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68392</v>
+        <v>68413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102101</v>
+        <v>101559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2247877542314074</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1844845200199784</v>
+        <v>0.1845424626661771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2754132340566844</v>
+        <v>0.2739500932502657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>160</v>
@@ -1286,19 +1286,19 @@
         <v>165464</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>142812</v>
+        <v>141137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>186709</v>
+        <v>189353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2243120047465302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1936029994505101</v>
+        <v>0.1913321874733281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2531123241379187</v>
+        <v>0.256696835452346</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>106909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>89546</v>
+        <v>89007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123763</v>
+        <v>124999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2913568288381607</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2440384062290979</v>
+        <v>0.2425686797052054</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3372908758544561</v>
+        <v>0.3406575043253077</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>112</v>
@@ -1336,19 +1336,19 @@
         <v>115289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>98252</v>
+        <v>98107</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>134753</v>
+        <v>132641</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3109863722777917</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2650322611663359</v>
+        <v>0.264639020648787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3634921876456877</v>
+        <v>0.3577928960211569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>216</v>
@@ -1357,19 +1357,19 @@
         <v>222197</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196161</v>
+        <v>196437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>246104</v>
+        <v>247943</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3012219633746989</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2659257138080809</v>
+        <v>0.2662994027551817</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3336306667667298</v>
+        <v>0.3361248241897866</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>24307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15879</v>
+        <v>15760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35386</v>
+        <v>36309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0662427133062969</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04327592827014293</v>
+        <v>0.04295051402297605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0964380623050594</v>
+        <v>0.0989522244348109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1407,19 +1407,19 @@
         <v>14598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8412</v>
+        <v>8166</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24134</v>
+        <v>22620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03937747889646659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02269203640112892</v>
+        <v>0.02202667941475341</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06510154044251393</v>
+        <v>0.06101699718315209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1428,19 +1428,19 @@
         <v>38905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28249</v>
+        <v>27885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51445</v>
+        <v>52430</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0527411689314271</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03829599690419468</v>
+        <v>0.03780290487148865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06974179175706896</v>
+        <v>0.07107641576234301</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>73352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59148</v>
+        <v>59937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89287</v>
+        <v>89537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1999051089279232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.161194069358385</v>
+        <v>0.1633461473645642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.243333331429364</v>
+        <v>0.2440149653295568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1478,19 +1478,19 @@
         <v>65497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51556</v>
+        <v>50790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79865</v>
+        <v>80288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1766760047699014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.139070232507708</v>
+        <v>0.1370030479677644</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2154323116348225</v>
+        <v>0.216572443919652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1499,19 +1499,19 @@
         <v>138849</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>119278</v>
+        <v>118386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161504</v>
+        <v>160687</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1882309587681448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1616989085334432</v>
+        <v>0.1604902598813544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2189434422397174</v>
+        <v>0.217835693765962</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>80222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63498</v>
+        <v>63439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97883</v>
+        <v>97198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1479042834681913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1170710875841827</v>
+        <v>0.1169619238657271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1804670390171821</v>
+        <v>0.1792043982706344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1624,19 +1624,19 @@
         <v>34742</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25879</v>
+        <v>25343</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47287</v>
+        <v>47619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2070634273778679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.154239339091504</v>
+        <v>0.1510469966536158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2818361619806538</v>
+        <v>0.283814980735872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -1645,19 +1645,19 @@
         <v>114963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96856</v>
+        <v>95083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136227</v>
+        <v>134499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1618809651275314</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1363841973282039</v>
+        <v>0.1338870516082195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.191823090454911</v>
+        <v>0.1893895030698269</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>116337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98460</v>
+        <v>97321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135249</v>
+        <v>135984</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2144892168127161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1815293574314295</v>
+        <v>0.1794311526028529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2493578710182227</v>
+        <v>0.2507131482053184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1695,19 +1695,19 @@
         <v>31092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22007</v>
+        <v>22188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41625</v>
+        <v>43098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1853127775545906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1311640927604437</v>
+        <v>0.1322458683873211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2480914191871409</v>
+        <v>0.2568687412215771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>144</v>
@@ -1716,19 +1716,19 @@
         <v>147429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126932</v>
+        <v>124952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170875</v>
+        <v>168823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2075961183580376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.178733870656968</v>
+        <v>0.1759461942276787</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.240611114750279</v>
+        <v>0.2377215320264063</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>162643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142569</v>
+        <v>141095</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>186487</v>
+        <v>183920</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2998635794496792</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2628540048419188</v>
+        <v>0.260135929131242</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3438259830230171</v>
+        <v>0.3390924728763335</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1766,19 +1766,19 @@
         <v>47155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35763</v>
+        <v>36157</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59206</v>
+        <v>59541</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.281050283148824</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2131530520798271</v>
+        <v>0.2154997714330726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3528716456681503</v>
+        <v>0.3548713637040112</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>206</v>
@@ -1787,19 +1787,19 @@
         <v>209798</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186207</v>
+        <v>187038</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>234025</v>
+        <v>235961</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.29541883201112</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2622008997399493</v>
+        <v>0.263369936404806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3295327986541463</v>
+        <v>0.3322589199743394</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>56806</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43791</v>
+        <v>43786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71883</v>
+        <v>72977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1047330569930091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0807371814522124</v>
+        <v>0.08072787289622091</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1325305046169658</v>
+        <v>0.1345471109116636</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1837,19 +1837,19 @@
         <v>14480</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8527</v>
+        <v>8170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22940</v>
+        <v>23641</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08630099396670116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05082021265017238</v>
+        <v>0.04869395582769793</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1367229117380287</v>
+        <v>0.1409018167302657</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -1858,19 +1858,19 @@
         <v>71286</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56930</v>
+        <v>54949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89563</v>
+        <v>87742</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1003783780673484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08016440924047148</v>
+        <v>0.07737453463602828</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1261152772661368</v>
+        <v>0.1235506965614542</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>126382</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106763</v>
+        <v>108844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145055</v>
+        <v>147202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2330098632764043</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1968385247721699</v>
+        <v>0.2006750406035817</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2674374843957822</v>
+        <v>0.2713962994066234</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -1908,19 +1908,19 @@
         <v>40313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31002</v>
+        <v>29381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52967</v>
+        <v>51217</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2402725179520165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1847732906626001</v>
+        <v>0.1751164220427333</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.315691098702841</v>
+        <v>0.3052593532760193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>166</v>
@@ -1929,19 +1929,19 @@
         <v>166695</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>145487</v>
+        <v>147096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189501</v>
+        <v>189466</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2347257064359627</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2048625672045022</v>
+        <v>0.2071280115077725</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2668378859587944</v>
+        <v>0.2667891278865722</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>178665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154180</v>
+        <v>154810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202997</v>
+        <v>205692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1446232987482886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1248032417325845</v>
+        <v>0.1253129617511713</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1643189649870834</v>
+        <v>0.1665008575020875</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -2054,19 +2054,19 @@
         <v>139483</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117279</v>
+        <v>118956</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159941</v>
+        <v>161543</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1952760764259875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1641904914134147</v>
+        <v>0.1665389797117104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2239174747624045</v>
+        <v>0.2261603730592006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>303</v>
@@ -2075,19 +2075,19 @@
         <v>318148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>285518</v>
+        <v>284825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>353249</v>
+        <v>348997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1631805709069533</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1464442609629971</v>
+        <v>0.1460887246083099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1811840707093495</v>
+        <v>0.1790031410432405</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>221558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196873</v>
+        <v>195555</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250055</v>
+        <v>246829</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1793430349515784</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1593617500247084</v>
+        <v>0.1582946323232572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2024104098040512</v>
+        <v>0.199799772912514</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>149</v>
@@ -2125,19 +2125,19 @@
         <v>154827</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>133199</v>
+        <v>132757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>178300</v>
+        <v>176852</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2167581222770377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1864785793297401</v>
+        <v>0.1858596884848464</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2496195636164673</v>
+        <v>0.2475931510837231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>373</v>
@@ -2146,19 +2146,19 @@
         <v>376385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>341302</v>
+        <v>344260</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>408858</v>
+        <v>413873</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1930505153736135</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1750564255220997</v>
+        <v>0.1765733834565034</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2097063963317745</v>
+        <v>0.2122783677558846</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>343052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>309864</v>
+        <v>312345</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>375568</v>
+        <v>373080</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2776881649030097</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.250824187878867</v>
+        <v>0.2528325815263334</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3040087510540017</v>
+        <v>0.3019949080325622</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>180</v>
@@ -2196,19 +2196,19 @@
         <v>185789</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>159926</v>
+        <v>160563</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>209000</v>
+        <v>210713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.260104274934294</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2238964910940773</v>
+        <v>0.2247884928370908</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2925999000174854</v>
+        <v>0.2949986893125636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>513</v>
@@ -2217,19 +2217,19 @@
         <v>528840</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>488305</v>
+        <v>489706</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>568922</v>
+        <v>570313</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2712460891330735</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2504555021623012</v>
+        <v>0.2511739826137679</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2918042159484756</v>
+        <v>0.2925177640859143</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>99202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80213</v>
+        <v>82514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119181</v>
+        <v>121689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0803001715642518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06492927505599812</v>
+        <v>0.06679185204834917</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09647254159690838</v>
+        <v>0.09850326262378103</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -2267,19 +2267,19 @@
         <v>63021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48768</v>
+        <v>49181</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80103</v>
+        <v>79345</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08822904515366894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06827509222750207</v>
+        <v>0.0688535141927575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1121450008979241</v>
+        <v>0.1110830837636481</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -2288,19 +2288,19 @@
         <v>162222</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>141948</v>
+        <v>140717</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189186</v>
+        <v>187570</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08320501255928461</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07280632925686806</v>
+        <v>0.07217478846440355</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09703476614183368</v>
+        <v>0.0962060111318304</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>392908</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>360901</v>
+        <v>359750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>427191</v>
+        <v>425791</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3180453298328715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2921370798737034</v>
+        <v>0.2912049495874808</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3457962503486285</v>
+        <v>0.3446624873214315</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>170</v>
@@ -2338,19 +2338,19 @@
         <v>171166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>151543</v>
+        <v>149942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196858</v>
+        <v>196010</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2396324812090119</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2121606021788108</v>
+        <v>0.2099191582077806</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.275601901981157</v>
+        <v>0.274414139796781</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>564</v>
@@ -2359,19 +2359,19 @@
         <v>564074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>525248</v>
+        <v>525385</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>606530</v>
+        <v>602926</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2893178120270751</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.269403669419475</v>
+        <v>0.2694741053038909</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3110938017298463</v>
+        <v>0.3092453854840386</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>57791</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44370</v>
+        <v>45557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>72999</v>
+        <v>73091</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1648562212985341</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.126571270185883</v>
+        <v>0.12995753310757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.208239268022706</v>
+        <v>0.2084994972044716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>102</v>
@@ -2484,19 +2484,19 @@
         <v>105823</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>88239</v>
+        <v>87971</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>124105</v>
+        <v>125730</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1860623835048968</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1551447416338427</v>
+        <v>0.154673675877383</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2182051544540211</v>
+        <v>0.2210627160275226</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>159</v>
@@ -2505,19 +2505,19 @@
         <v>163615</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>141744</v>
+        <v>140246</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190837</v>
+        <v>187515</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1779759324964839</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1541861003717503</v>
+        <v>0.1525564870314643</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2075876569826268</v>
+        <v>0.2039743561909075</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>67037</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53010</v>
+        <v>53034</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82759</v>
+        <v>82126</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1912319065482725</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1512187703114384</v>
+        <v>0.15128698107881</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2360804806983892</v>
+        <v>0.234275644871772</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>91</v>
@@ -2555,19 +2555,19 @@
         <v>96234</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>80510</v>
+        <v>78890</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>116693</v>
+        <v>114946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1692015321165476</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1415558897358518</v>
+        <v>0.138707550091302</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.205173035571714</v>
+        <v>0.2021029030026742</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>155</v>
@@ -2576,19 +2576,19 @@
         <v>163271</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>140281</v>
+        <v>140800</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>186419</v>
+        <v>187929</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1776022762873002</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1525943893072825</v>
+        <v>0.153158856167772</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2027817767975282</v>
+        <v>0.2044250694700705</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>104226</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87764</v>
+        <v>87508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>121792</v>
+        <v>122709</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2973185243187941</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2503571162814811</v>
+        <v>0.2496259232913657</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3474270835561405</v>
+        <v>0.3500407100400303</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>132</v>
@@ -2626,19 +2626,19 @@
         <v>139108</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>118451</v>
+        <v>120787</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>159434</v>
+        <v>162204</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2445843888394721</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2082640126788876</v>
+        <v>0.2123714557877602</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2803218111725489</v>
+        <v>0.285191985686515</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>230</v>
@@ -2647,19 +2647,19 @@
         <v>243334</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216962</v>
+        <v>216382</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>272565</v>
+        <v>269866</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.264693260915184</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2360059284764164</v>
+        <v>0.2353755660425549</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2964892596544432</v>
+        <v>0.293553411258433</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>18093</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10797</v>
+        <v>11084</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26651</v>
+        <v>28130</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05161305390301171</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03079879919315408</v>
+        <v>0.0316184432530861</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07602515943790264</v>
+        <v>0.08024350369737261</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>59</v>
@@ -2697,19 +2697,19 @@
         <v>64012</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49053</v>
+        <v>49498</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80285</v>
+        <v>81441</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1125473478434686</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08624694556553168</v>
+        <v>0.08702913576541343</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1411601782982418</v>
+        <v>0.1431923359912265</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>77</v>
@@ -2718,19 +2718,19 @@
         <v>82105</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>66517</v>
+        <v>64028</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>100817</v>
+        <v>101399</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08931154600970294</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07235587418121844</v>
+        <v>0.06964780450950708</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1096660203332541</v>
+        <v>0.1102997144572701</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>103407</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85832</v>
+        <v>87475</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>121975</v>
+        <v>120522</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2949802939313875</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2448458313210473</v>
+        <v>0.2495322571559075</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3479473182278376</v>
+        <v>0.3438041368686643</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>155</v>
@@ -2768,19 +2768,19 @@
         <v>163576</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>142266</v>
+        <v>143011</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>187657</v>
+        <v>186882</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2876043476956149</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2501373429173173</v>
+        <v>0.2514468282370004</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3299460015955077</v>
+        <v>0.3285824090800616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>258</v>
@@ -2789,19 +2789,19 @@
         <v>266982</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>241033</v>
+        <v>238411</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>295729</v>
+        <v>293351</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2904169842913289</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2621901612554541</v>
+        <v>0.2593378259411647</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3216863605405768</v>
+        <v>0.3191003591463157</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>33626</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>24678</v>
+        <v>23318</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45500</v>
+        <v>45254</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.112764251830982</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08275576545165694</v>
+        <v>0.078194720120557</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1525823189657339</v>
+        <v>0.1517567589018826</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>146</v>
@@ -2914,19 +2914,19 @@
         <v>150799</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>128197</v>
+        <v>130565</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>175491</v>
+        <v>175616</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1209509324904705</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1028230432436479</v>
+        <v>0.1047221365959034</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1407554637437528</v>
+        <v>0.1408557684299675</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>180</v>
@@ -2935,19 +2935,19 @@
         <v>184425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>159077</v>
+        <v>161261</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>209870</v>
+        <v>212467</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1193707981743206</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1029642232748121</v>
+        <v>0.1043776387301793</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1358399030627121</v>
+        <v>0.137521072492467</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>74951</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>62124</v>
+        <v>61636</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>92659</v>
+        <v>90213</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2513450238824154</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2083296969161725</v>
+        <v>0.2066927702591107</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3107276040903206</v>
+        <v>0.302525374644126</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>178</v>
@@ -2985,19 +2985,19 @@
         <v>178173</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>157290</v>
+        <v>155227</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>204879</v>
+        <v>201967</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1429065056234653</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1261576523849937</v>
+        <v>0.1245024974458419</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1643273009015488</v>
+        <v>0.1619913751286789</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>257</v>
@@ -3006,19 +3006,19 @@
         <v>253124</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>224813</v>
+        <v>222551</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>280612</v>
+        <v>282640</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1638365297712644</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1455123665572122</v>
+        <v>0.1440481343615598</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1816286533739225</v>
+        <v>0.182941111731769</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>104215</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>88591</v>
+        <v>88413</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>120524</v>
+        <v>120546</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3494782361666484</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2970849454199048</v>
+        <v>0.2964880826741569</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4041686779882029</v>
+        <v>0.4042450948403783</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>295</v>
@@ -3056,19 +3056,19 @@
         <v>288173</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>259046</v>
+        <v>260669</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>316543</v>
+        <v>320800</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2311347404553176</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2077727634503987</v>
+        <v>0.2090745129053871</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2538890132189913</v>
+        <v>0.2573035996981899</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>404</v>
@@ -3077,19 +3077,19 @@
         <v>392388</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>357631</v>
+        <v>359589</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>426052</v>
+        <v>425191</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.253976552227941</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2314795936078534</v>
+        <v>0.2327469713644436</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2757658613589422</v>
+        <v>0.2752082372891472</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>25956</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17592</v>
+        <v>17270</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38055</v>
+        <v>36817</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08704344733295835</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.058995106356982</v>
+        <v>0.05791562630094204</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1276156552439625</v>
+        <v>0.123464016909814</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>112</v>
@@ -3127,19 +3127,19 @@
         <v>109716</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>92633</v>
+        <v>90256</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>130893</v>
+        <v>127377</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08799964027984486</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07429818521215259</v>
+        <v>0.07239150339298317</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1049851136621087</v>
+        <v>0.1021647753894385</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>137</v>
@@ -3148,19 +3148,19 @@
         <v>135672</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>114110</v>
+        <v>115868</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>158244</v>
+        <v>160414</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08781508278321347</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07385885812706117</v>
+        <v>0.07499666944273944</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1024244375300987</v>
+        <v>0.1038294683398579</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>59452</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>46784</v>
+        <v>47273</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>74739</v>
+        <v>75859</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1993690407869959</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1568876423512542</v>
+        <v>0.1585266041426363</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2506316128105529</v>
+        <v>0.2543894435522451</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>505</v>
@@ -3198,19 +3198,19 @@
         <v>519916</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>485052</v>
+        <v>484548</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>554611</v>
+        <v>553739</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4170081811509018</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3890443763256242</v>
+        <v>0.3886406597561539</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4448356829826849</v>
+        <v>0.4441362742842536</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>564</v>
@@ -3219,19 +3219,19 @@
         <v>579368</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>540958</v>
+        <v>544341</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>618406</v>
+        <v>618441</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3750010370432605</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3501395956075469</v>
+        <v>0.3523292317505864</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4002686324105527</v>
+        <v>0.4002913640856484</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>537488</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>491080</v>
+        <v>494474</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>578751</v>
+        <v>583869</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.164508169405705</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.150304338949102</v>
+        <v>0.1513431715878941</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1771377493194576</v>
+        <v>0.1787041159466793</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>573</v>
@@ -3344,19 +3344,19 @@
         <v>598223</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>555312</v>
+        <v>553507</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>646159</v>
+        <v>645081</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1773161016721266</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1645970939458471</v>
+        <v>0.1640620655621009</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1915245558924877</v>
+        <v>0.191205202676809</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1085</v>
@@ -3365,19 +3365,19 @@
         <v>1135710</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1077425</v>
+        <v>1077902</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1199323</v>
+        <v>1202259</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1710148592723605</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1622382916775218</v>
+        <v>0.1623101665119271</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.180593619503819</v>
+        <v>0.1810357294930953</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>697002</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>656775</v>
+        <v>650827</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>747861</v>
+        <v>746561</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2133304929865882</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2010184654871565</v>
+        <v>0.1991978600250148</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2288969863107133</v>
+        <v>0.2284989032338752</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>613</v>
@@ -3415,19 +3415,19 @@
         <v>629503</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>585169</v>
+        <v>582793</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>673502</v>
+        <v>676807</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1865876830689581</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1734468114815764</v>
+        <v>0.1727427079608468</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1996291411181314</v>
+        <v>0.2006088085510407</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1304</v>
@@ -3436,19 +3436,19 @@
         <v>1326505</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1262033</v>
+        <v>1261125</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1397446</v>
+        <v>1390454</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1997446020966801</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1900365286866442</v>
+        <v>0.1898998122988627</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2104269113068497</v>
+        <v>0.2093740283511976</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>940636</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>887221</v>
+        <v>887004</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>993167</v>
+        <v>996328</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2878994651852469</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2715506226554912</v>
+        <v>0.271484196810048</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3039774644993885</v>
+        <v>0.3049450672641812</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>853</v>
@@ -3486,19 +3486,19 @@
         <v>864516</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>816723</v>
+        <v>811048</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>916173</v>
+        <v>910334</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2562466512452723</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2420806548133658</v>
+        <v>0.240398393033029</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2715579040976661</v>
+        <v>0.2698273652982677</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1771</v>
@@ -3507,19 +3507,19 @@
         <v>1805152</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1736623</v>
+        <v>1727255</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1880729</v>
+        <v>1876316</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.271819192473756</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2615000427533041</v>
+        <v>0.260089430830542</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2831994373387889</v>
+        <v>0.2825350156451768</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>259981</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>229538</v>
+        <v>228572</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>293429</v>
+        <v>292493</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07957204479438587</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07025456705657411</v>
+        <v>0.06995886434159115</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08980955603978835</v>
+        <v>0.08952299230396124</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>274</v>
@@ -3557,19 +3557,19 @@
         <v>278193</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>247978</v>
+        <v>249950</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>313147</v>
+        <v>312022</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0824576780013038</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07350175728333702</v>
+        <v>0.07408649722916633</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09281811610505671</v>
+        <v>0.09248471884551894</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>528</v>
@@ -3578,19 +3578,19 @@
         <v>538174</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>490890</v>
+        <v>496801</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>584406</v>
+        <v>585768</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08103800510365156</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07391802166760975</v>
+        <v>0.07480809799865361</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08799958219777086</v>
+        <v>0.08820470827686366</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>832133</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>781106</v>
+        <v>781913</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>882107</v>
+        <v>884460</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.254689827628074</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2390721858654526</v>
+        <v>0.2393190740723867</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2699856047403125</v>
+        <v>0.2707055480639931</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>979</v>
@@ -3628,19 +3628,19 @@
         <v>1003330</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>949581</v>
+        <v>955401</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1053994</v>
+        <v>1059153</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2973918860123392</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2814604173789521</v>
+        <v>0.2831854079487054</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3124087705803394</v>
+        <v>0.3139379927663121</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1808</v>
@@ -3649,19 +3649,19 @@
         <v>1835463</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1760976</v>
+        <v>1756681</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1905838</v>
+        <v>1910321</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2763833410535518</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.265167131177202</v>
+        <v>0.2645203674945125</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2869804692711171</v>
+        <v>0.2876554821286718</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>143352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124895</v>
+        <v>125077</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165137</v>
+        <v>166858</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.327877231860019</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2856625484705486</v>
+        <v>0.2860796100715623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3777049013793829</v>
+        <v>0.3816413247175743</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -4016,19 +4016,19 @@
         <v>113523</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95551</v>
+        <v>96650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131507</v>
+        <v>132003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3654026224786016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3075551979127393</v>
+        <v>0.3110935828340697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4232904471397739</v>
+        <v>0.4248878141865768</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -4037,19 +4037,19 @@
         <v>256874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229869</v>
+        <v>229369</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284539</v>
+        <v>284953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3434655435352256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3073569305997243</v>
+        <v>0.3066882974759634</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3804558667236896</v>
+        <v>0.3810094276865273</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>132924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112241</v>
+        <v>112273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153151</v>
+        <v>153852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3040265872123178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2567196619286689</v>
+        <v>0.2567936562148843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.350291662288608</v>
+        <v>0.351894107543556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -4087,19 +4087,19 @@
         <v>91066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72189</v>
+        <v>74705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107578</v>
+        <v>106801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2931192641710345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2323584560506918</v>
+        <v>0.2404575119262475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3462687490651705</v>
+        <v>0.3437683332313491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>207</v>
@@ -4108,19 +4108,19 @@
         <v>223989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199513</v>
+        <v>198138</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251855</v>
+        <v>251056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.299495608365545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2667684145248483</v>
+        <v>0.2649296873186007</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3367551692843572</v>
+        <v>0.3356855755335322</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>81627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64656</v>
+        <v>65043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99079</v>
+        <v>99183</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1866993062012559</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.147882312934829</v>
+        <v>0.1487683985135266</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2266169909525252</v>
+        <v>0.2268545556665869</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -4158,19 +4158,19 @@
         <v>52644</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39762</v>
+        <v>41302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69176</v>
+        <v>68465</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1694495694070896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1279833512911744</v>
+        <v>0.1329430481284509</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2226608947843145</v>
+        <v>0.2203729153675893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>120</v>
@@ -4179,19 +4179,19 @@
         <v>134271</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111202</v>
+        <v>111744</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159030</v>
+        <v>157923</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1795336439914777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1486881033574499</v>
+        <v>0.1494127657112372</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2126384448643028</v>
+        <v>0.2111582001311463</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>8118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3788</v>
+        <v>3973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14962</v>
+        <v>15797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01856692742008899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008663278356302834</v>
+        <v>0.009088082116295122</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03422042871069397</v>
+        <v>0.03613080106519054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4229,19 +4229,19 @@
         <v>4864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1909</v>
+        <v>1915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10003</v>
+        <v>10861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01565664050159279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006144927932351539</v>
+        <v>0.0061647000120598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03219885069864444</v>
+        <v>0.03496039900002451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4250,19 +4250,19 @@
         <v>12982</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7250</v>
+        <v>7274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22322</v>
+        <v>21791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01735797372761684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009693647095223447</v>
+        <v>0.009726526588582285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02984725803056435</v>
+        <v>0.02913648285602112</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>71191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54948</v>
+        <v>56874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88356</v>
+        <v>89544</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1628299473063183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1256779628240668</v>
+        <v>0.1300846693846249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2020897036549956</v>
+        <v>0.2048064268548704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -4300,19 +4300,19 @@
         <v>48581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36445</v>
+        <v>37305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61687</v>
+        <v>64042</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1563719034416815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1173086303825828</v>
+        <v>0.1200746137931817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1985567920347737</v>
+        <v>0.206137838367541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -4321,19 +4321,19 @@
         <v>119772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>101516</v>
+        <v>99477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141683</v>
+        <v>142020</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1601472303801349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1357369659365177</v>
+        <v>0.1330109616066933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1894439733527197</v>
+        <v>0.1898944137304631</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>131974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110916</v>
+        <v>112658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151839</v>
+        <v>153915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3181047744892908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2673463549015883</v>
+        <v>0.2715463242676769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.36598673109222</v>
+        <v>0.3709886051582026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -4446,19 +4446,19 @@
         <v>118664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>100394</v>
+        <v>100197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138233</v>
+        <v>136665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3520771744883425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2978695459175588</v>
+        <v>0.297284630454387</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4101401391451506</v>
+        <v>0.4054875555564836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -4467,19 +4467,19 @@
         <v>250638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225634</v>
+        <v>222069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279960</v>
+        <v>276477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3333325771265748</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3000795044100507</v>
+        <v>0.2953375903131377</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3723296812436466</v>
+        <v>0.3676976129980862</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>113249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93405</v>
+        <v>94385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>133215</v>
+        <v>134537</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2729697638884153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2251401393127799</v>
+        <v>0.2275002177539921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.321095251516945</v>
+        <v>0.3242811264343416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -4517,19 +4517,19 @@
         <v>97051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79600</v>
+        <v>80512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114830</v>
+        <v>115636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2879516209021413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2361741826350278</v>
+        <v>0.2388814990393801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3407019060674093</v>
+        <v>0.34309379940371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>189</v>
@@ -4538,19 +4538,19 @@
         <v>210300</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184599</v>
+        <v>185739</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236961</v>
+        <v>234519</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2796852376774734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2455049574106707</v>
+        <v>0.2470216161714809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3151434280048405</v>
+        <v>0.3118958101586726</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>74489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59448</v>
+        <v>59477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92028</v>
+        <v>93122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1795447341179522</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.143290468676277</v>
+        <v>0.1433608035777464</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2218203217044935</v>
+        <v>0.2244561591620709</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -4588,19 +4588,19 @@
         <v>53098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39687</v>
+        <v>40413</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69451</v>
+        <v>69282</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.157543388035697</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1177527955077655</v>
+        <v>0.1199070400590314</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2060632814563437</v>
+        <v>0.2055603270031102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -4609,19 +4609,19 @@
         <v>127587</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106608</v>
+        <v>105268</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149835</v>
+        <v>152782</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.16968284164334</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1417819191832397</v>
+        <v>0.1400002054737728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1992711983317304</v>
+        <v>0.2031902892113269</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>10251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4896</v>
+        <v>5063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18031</v>
+        <v>19178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02470815113671061</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01180117757505552</v>
+        <v>0.01220259568493986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04346053998238054</v>
+        <v>0.04622481052065294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4659,19 +4659,19 @@
         <v>12916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6835</v>
+        <v>7147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21516</v>
+        <v>22124</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0383233547935517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02027838215660251</v>
+        <v>0.02120529556823224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06383850749419835</v>
+        <v>0.06564196856603104</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -4680,19 +4680,19 @@
         <v>23167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14879</v>
+        <v>15069</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37306</v>
+        <v>34264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03081103565939936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01978811748415545</v>
+        <v>0.02004081304585572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04961514851338024</v>
+        <v>0.04556950860775944</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>84914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66664</v>
+        <v>69541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105793</v>
+        <v>103454</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2046725763676312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1606846470487039</v>
+        <v>0.1676180459875778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2549994751534936</v>
+        <v>0.2493611293593064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -4730,19 +4730,19 @@
         <v>55310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41892</v>
+        <v>42435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70382</v>
+        <v>70815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1641044617802674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1242940168931205</v>
+        <v>0.1259066916305157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2088254567582685</v>
+        <v>0.2101094040860515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -4751,19 +4751,19 @@
         <v>140223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116918</v>
+        <v>119745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163213</v>
+        <v>166450</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1864883078932124</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1554939450461567</v>
+        <v>0.1592538576089017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.217063280861296</v>
+        <v>0.2213683658095928</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>168743</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146464</v>
+        <v>145529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192637</v>
+        <v>192505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2693482274650859</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2337855838253054</v>
+        <v>0.2322943154118426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3074877854324481</v>
+        <v>0.3072762304699255</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -4876,19 +4876,19 @@
         <v>77315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63793</v>
+        <v>61979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93966</v>
+        <v>92374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2972180588126426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.245236828434371</v>
+        <v>0.238261382195511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3612300077316291</v>
+        <v>0.3551094519948442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -4897,19 +4897,19 @@
         <v>246058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220234</v>
+        <v>222427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277772</v>
+        <v>275297</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.277525119309347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2483981876175182</v>
+        <v>0.2508722947995428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3132948421071091</v>
+        <v>0.3105030498346505</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>129463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109802</v>
+        <v>109708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150515</v>
+        <v>152723</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2066484606380806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1752664819740314</v>
+        <v>0.1751161219866092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2402516151251018</v>
+        <v>0.2437769116963929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -4947,19 +4947,19 @@
         <v>59739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47697</v>
+        <v>47469</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74645</v>
+        <v>76329</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2296521484380991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1833588635389224</v>
+        <v>0.1824815833416854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2869542074336944</v>
+        <v>0.2934288863596071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -4968,19 +4968,19 @@
         <v>189202</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165682</v>
+        <v>167247</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>217956</v>
+        <v>215721</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2133976463369166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1868696223440506</v>
+        <v>0.1886349419726968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2458286734565254</v>
+        <v>0.2433084074326101</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>120553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102300</v>
+        <v>100274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143377</v>
+        <v>141939</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.19242676144884</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.163291031069359</v>
+        <v>0.1600583636030116</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.228859203796925</v>
+        <v>0.2265632013744476</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -5018,19 +5018,19 @@
         <v>49044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36719</v>
+        <v>36273</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62682</v>
+        <v>62277</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1885373171155916</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1411556863394072</v>
+        <v>0.1394407976784533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2409653357158436</v>
+        <v>0.2394087770416334</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>160</v>
@@ -5039,19 +5039,19 @@
         <v>169597</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144748</v>
+        <v>147458</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>193467</v>
+        <v>194593</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1912856147640742</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1632593207891604</v>
+        <v>0.1663154789418149</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2182088129839017</v>
+        <v>0.2194782993718234</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>32826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22495</v>
+        <v>22293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43453</v>
+        <v>44761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05239766779834231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03590734256346156</v>
+        <v>0.03558352609783525</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06936003507620205</v>
+        <v>0.07144696592674595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5089,19 +5089,19 @@
         <v>12279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6287</v>
+        <v>6383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21178</v>
+        <v>20954</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04720186509303208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02417065497901112</v>
+        <v>0.02453835641582915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08141193314375696</v>
+        <v>0.08055372342651991</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -5110,19 +5110,19 @@
         <v>45105</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32534</v>
+        <v>33062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59890</v>
+        <v>59704</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05087324103609834</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03669476284954751</v>
+        <v>0.03729025521829502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06754949279905177</v>
+        <v>0.06733889130723798</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>174902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153770</v>
+        <v>154590</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199335</v>
+        <v>199206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2791788826496513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2454476927976859</v>
+        <v>0.2467573355429806</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3181797640660821</v>
+        <v>0.3179737456538912</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -5160,19 +5160,19 @@
         <v>61752</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48835</v>
+        <v>48735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76781</v>
+        <v>77448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2373906105406346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1877330721866971</v>
+        <v>0.1873489698999757</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.295166308921657</v>
+        <v>0.2977297954415065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -5181,19 +5181,19 @@
         <v>236654</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>211090</v>
+        <v>211145</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>262982</v>
+        <v>263707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2669183785535638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.238085405103187</v>
+        <v>0.2381470320826196</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2966135276503055</v>
+        <v>0.2974306175227222</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>270425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240999</v>
+        <v>242813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>300157</v>
+        <v>301933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2337030112106348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2082728104223372</v>
+        <v>0.2098399770978547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2593971183098679</v>
+        <v>0.2609322525005447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -5306,19 +5306,19 @@
         <v>225202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198758</v>
+        <v>199783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>251090</v>
+        <v>255376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2941216263827788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2595856288742681</v>
+        <v>0.2609233367178199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3279320403048039</v>
+        <v>0.3335296110484451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>461</v>
@@ -5327,19 +5327,19 @@
         <v>495627</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>457752</v>
+        <v>458764</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>536012</v>
+        <v>537000</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2577621209894824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2380640500132705</v>
+        <v>0.2385904447871673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2787651089387326</v>
+        <v>0.2792790310348564</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>218881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191656</v>
+        <v>193274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247557</v>
+        <v>247022</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1891581389497456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1656299395647671</v>
+        <v>0.167028616269621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2139398716859736</v>
+        <v>0.2134776899359674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -5377,19 +5377,19 @@
         <v>192097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>168520</v>
+        <v>167612</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>217082</v>
+        <v>217147</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2508857372759963</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2200935611524033</v>
+        <v>0.2189072214219439</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2835163354904849</v>
+        <v>0.2836011742642721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>387</v>
@@ -5398,19 +5398,19 @@
         <v>410978</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>372214</v>
+        <v>375663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>447542</v>
+        <v>447239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.213738494859667</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1935780324928293</v>
+        <v>0.1953717714699983</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2327544332272844</v>
+        <v>0.2325965332008905</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>212973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>186852</v>
+        <v>186589</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>241448</v>
+        <v>238234</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1840524656965675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1614785066504736</v>
+        <v>0.1612509791052948</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2086604011620224</v>
+        <v>0.2058833361296158</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>125</v>
@@ -5448,19 +5448,19 @@
         <v>133391</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>114140</v>
+        <v>112696</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155531</v>
+        <v>156268</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1742134521876173</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1490703813467606</v>
+        <v>0.1471848523312602</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2031289487329827</v>
+        <v>0.204090999148541</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>326</v>
@@ -5469,19 +5469,19 @@
         <v>346364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>314582</v>
+        <v>311968</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>380026</v>
+        <v>382460</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1801345025745571</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1636053989958908</v>
+        <v>0.16224616173455</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1976412675514299</v>
+        <v>0.1989068808124747</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>46165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34043</v>
+        <v>34179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60779</v>
+        <v>61336</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03989599267701406</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0294201816628972</v>
+        <v>0.02953740379205593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05252531154135223</v>
+        <v>0.05300691617663569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -5519,19 +5519,19 @@
         <v>22413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14060</v>
+        <v>14785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34061</v>
+        <v>34066</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02927274247494826</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01836278294088717</v>
+        <v>0.01930959958901393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04448430705894751</v>
+        <v>0.04449124569072874</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -5540,19 +5540,19 @@
         <v>68578</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53730</v>
+        <v>53691</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86886</v>
+        <v>86035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0356657410883033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02794370943649392</v>
+        <v>0.02792332574226942</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04518680879859537</v>
+        <v>0.04474464359085899</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>408688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>377037</v>
+        <v>377509</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>442978</v>
+        <v>443122</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3531903914660381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3258372643511486</v>
+        <v>0.3262450182495513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.382824160378547</v>
+        <v>0.3829477952766844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>174</v>
@@ -5590,19 +5590,19 @@
         <v>192572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>168040</v>
+        <v>167441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>215983</v>
+        <v>221550</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2515064416786594</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2194656865730712</v>
+        <v>0.2186845240579408</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2820820046675948</v>
+        <v>0.2893526400331241</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>551</v>
@@ -5611,19 +5611,19 @@
         <v>601261</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>559823</v>
+        <v>557077</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>641053</v>
+        <v>642637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3126991404879902</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2911486837153818</v>
+        <v>0.2897202058720801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3333940376049032</v>
+        <v>0.334217667817688</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>99402</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>80565</v>
+        <v>83428</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117877</v>
+        <v>119748</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.194678283340068</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.157786726063059</v>
+        <v>0.1633938169456879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2308614474839709</v>
+        <v>0.2345263341020724</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -5736,19 +5736,19 @@
         <v>127917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106626</v>
+        <v>109040</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>150719</v>
+        <v>151294</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1689664849581508</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1408421154462362</v>
+        <v>0.1440307307131667</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1990850437146088</v>
+        <v>0.1998442366258014</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>216</v>
@@ -5757,19 +5757,19 @@
         <v>227319</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>198677</v>
+        <v>199593</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>254073</v>
+        <v>252907</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1793228983888971</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1567284838155301</v>
+        <v>0.1574509674453221</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.200427387822822</v>
+        <v>0.1995077605291598</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>91612</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>73589</v>
+        <v>74609</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109608</v>
+        <v>110736</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1794207526969794</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1441233047486345</v>
+        <v>0.1461216603102457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2146664373490738</v>
+        <v>0.2168765238734299</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -5807,19 +5807,19 @@
         <v>149902</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128037</v>
+        <v>128842</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175635</v>
+        <v>175038</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.198005774978943</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1691239304923614</v>
+        <v>0.1701876148640734</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.231996179361258</v>
+        <v>0.231208204227028</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>226</v>
@@ -5828,19 +5828,19 @@
         <v>241513</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>213647</v>
+        <v>211941</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272359</v>
+        <v>271202</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1905199440964555</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1685370971976962</v>
+        <v>0.1671914247327124</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2148527026062056</v>
+        <v>0.2139399718339713</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>93654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76910</v>
+        <v>75882</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112267</v>
+        <v>110590</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.183420020937715</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1506271610784375</v>
+        <v>0.1486145822071185</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2198747010341608</v>
+        <v>0.2165893180987395</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>132</v>
@@ -5878,19 +5878,19 @@
         <v>141128</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>119141</v>
+        <v>120632</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>166763</v>
+        <v>163469</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1864166333304451</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1573742387691164</v>
+        <v>0.159343298737148</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2202770794897695</v>
+        <v>0.2159261784781475</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>222</v>
@@ -5899,19 +5899,19 @@
         <v>234782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>208182</v>
+        <v>208269</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264899</v>
+        <v>264737</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1852096327010128</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1642258186565689</v>
+        <v>0.1642951278259185</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2089676865129553</v>
+        <v>0.2088402124240621</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>29599</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19778</v>
+        <v>20495</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42744</v>
+        <v>43264</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05797036798283708</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03873593901332455</v>
+        <v>0.04014029649694533</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08371305081717539</v>
+        <v>0.08473219993281644</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -5949,19 +5949,19 @@
         <v>34493</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24593</v>
+        <v>24132</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47844</v>
+        <v>47914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04556229380380029</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03248510610238664</v>
+        <v>0.031875878681138</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06319697301543041</v>
+        <v>0.06329035111362576</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -5970,19 +5970,19 @@
         <v>64093</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50135</v>
+        <v>49209</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83089</v>
+        <v>80522</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05056012181134443</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03954927920653439</v>
+        <v>0.03881880486573302</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06554509375101354</v>
+        <v>0.06352050597752047</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>196330</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>174737</v>
+        <v>174344</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>218842</v>
+        <v>220071</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3845105750424006</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3422220984509699</v>
+        <v>0.3414510033550499</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.428601884744803</v>
+        <v>0.4310085827991655</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>279</v>
@@ -6020,19 +6020,19 @@
         <v>303617</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>279554</v>
+        <v>276101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>334410</v>
+        <v>331957</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4010488129286608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3692640516869589</v>
+        <v>0.3647019852243052</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.441723363100384</v>
+        <v>0.4384835541053046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>464</v>
@@ -6041,19 +6041,19 @@
         <v>499947</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>463397</v>
+        <v>464269</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>535619</v>
+        <v>535874</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3943874030022902</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3655545571995785</v>
+        <v>0.3662427190835285</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4225278373068636</v>
+        <v>0.4227289104863369</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>63250</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>50930</v>
+        <v>50230</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>79287</v>
+        <v>78167</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2369956622697624</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1908352246285037</v>
+        <v>0.1882103703883471</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2970852685614276</v>
+        <v>0.2928879702635189</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>199</v>
@@ -6166,19 +6166,19 @@
         <v>212557</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>186344</v>
+        <v>184117</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>242286</v>
+        <v>237713</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1921553829642801</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1684589593670564</v>
+        <v>0.1664453624798829</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2190311734829211</v>
+        <v>0.2148975350305743</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>261</v>
@@ -6187,19 +6187,19 @@
         <v>275807</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>247678</v>
+        <v>247756</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>307090</v>
+        <v>306760</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2008710393896752</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.180384838420118</v>
+        <v>0.1804415512517678</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2236549666292166</v>
+        <v>0.2234143036516458</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>58734</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44979</v>
+        <v>46223</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>72639</v>
+        <v>72603</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.220073737224764</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1685335335342333</v>
+        <v>0.1731951598274424</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2721767032044921</v>
+        <v>0.2720404101863919</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>200</v>
@@ -6237,19 +6237,19 @@
         <v>209808</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>184824</v>
+        <v>183745</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>237390</v>
+        <v>237784</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1896706737879579</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1670844909765338</v>
+        <v>0.1661090381557387</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2146050164455155</v>
+        <v>0.2149617029576881</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -6258,19 +6258,19 @@
         <v>268542</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>239365</v>
+        <v>238212</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>298169</v>
+        <v>298138</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1955801520360627</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1743306047210143</v>
+        <v>0.1734904911765932</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2171577682315855</v>
+        <v>0.2171352396457422</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>69201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54216</v>
+        <v>56194</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83277</v>
+        <v>83637</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2592928469482192</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2031443638435677</v>
+        <v>0.2105563379592909</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.312036601451086</v>
+        <v>0.3133846903539542</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>198</v>
@@ -6308,19 +6308,19 @@
         <v>206795</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>182869</v>
+        <v>180044</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>232596</v>
+        <v>231773</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1869471153935246</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1653166964592649</v>
+        <v>0.1627630671823643</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.21027103744846</v>
+        <v>0.2095269029890942</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>269</v>
@@ -6329,19 +6329,19 @@
         <v>275996</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>250280</v>
+        <v>247596</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>309396</v>
+        <v>304770</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2010090380630715</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1822799011039454</v>
+        <v>0.18032520001168</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.225334328963074</v>
+        <v>0.2219652163615233</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>15808</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8988</v>
+        <v>8940</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25236</v>
+        <v>25057</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05923379948365855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03367806311962159</v>
+        <v>0.03349648199036966</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09455727288664344</v>
+        <v>0.09388957192517165</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>60</v>
@@ -6379,19 +6379,19 @@
         <v>62168</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>48330</v>
+        <v>48186</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>79751</v>
+        <v>77576</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05620131801708093</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04369159776650244</v>
+        <v>0.0435608009855174</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07209614939984237</v>
+        <v>0.07012985266036786</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>75</v>
@@ -6400,19 +6400,19 @@
         <v>77977</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>61085</v>
+        <v>62549</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>95110</v>
+        <v>97050</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05679074491157035</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04448873296999876</v>
+        <v>0.04555490195815319</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06926880764297275</v>
+        <v>0.0706819497719004</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>59889</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>46871</v>
+        <v>46512</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>74611</v>
+        <v>75890</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2244039540735958</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1756241229824592</v>
+        <v>0.1742808637715919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.279565868717236</v>
+        <v>0.2843564564151459</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>384</v>
@@ -6450,19 +6450,19 @@
         <v>414842</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>382032</v>
+        <v>386055</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>448178</v>
+        <v>450167</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3750255098371564</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3453647198873688</v>
+        <v>0.3490012480724255</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4051616804495893</v>
+        <v>0.4069600160135796</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>442</v>
@@ -6471,19 +6471,19 @@
         <v>474732</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>439046</v>
+        <v>440017</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>512497</v>
+        <v>514777</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3457490255996203</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3197589239175516</v>
+        <v>0.320466088046882</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3732535804174606</v>
+        <v>0.3749138075334839</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>877146</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>828521</v>
+        <v>822386</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>925451</v>
+        <v>929066</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2569875398753557</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2427414290231826</v>
+        <v>0.2409439553535675</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2711400649241317</v>
+        <v>0.2721992793729243</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>805</v>
@@ -6596,19 +6596,19 @@
         <v>875177</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>823649</v>
+        <v>822124</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>924579</v>
+        <v>926607</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2474523588513485</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2328828611467261</v>
+        <v>0.2324518579360333</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2614203425625171</v>
+        <v>0.2619937139454587</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1626</v>
@@ -6617,19 +6617,19 @@
         <v>1752323</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1674126</v>
+        <v>1677730</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1827873</v>
+        <v>1835181</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2521351839089725</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2408836305909158</v>
+        <v>0.2414021923945265</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2630058020635574</v>
+        <v>0.2640572509865238</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>744861</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>698710</v>
+        <v>694210</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>798879</v>
+        <v>797567</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2182305686073081</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2047090329449943</v>
+        <v>0.203390729706481</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2340566479628753</v>
+        <v>0.2336722159349372</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>748</v>
@@ -6667,19 +6667,19 @@
         <v>799663</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>751670</v>
+        <v>747471</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>852367</v>
+        <v>848750</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2261010346834342</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2125311590624868</v>
+        <v>0.2113438929051655</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2410028667423729</v>
+        <v>0.2399801326902596</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1449</v>
@@ -6688,19 +6688,19 @@
         <v>1544524</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1472566</v>
+        <v>1472198</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1616232</v>
+        <v>1612566</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2222357681862729</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2118820133108078</v>
+        <v>0.2118290101710745</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.23255344354635</v>
+        <v>0.2320260895855907</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>652496</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>603168</v>
+        <v>609052</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>698945</v>
+        <v>703339</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1911692310518582</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1767170994207067</v>
+        <v>0.1784410741721931</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2047778796149502</v>
+        <v>0.2060652848351779</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>592</v>
@@ -6738,19 +6738,19 @@
         <v>636101</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>594818</v>
+        <v>592449</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>683545</v>
+        <v>685371</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1798546998683861</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.168182075067802</v>
+        <v>0.167512099266593</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1932691674842261</v>
+        <v>0.1937855430534418</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1209</v>
@@ -6759,19 +6759,19 @@
         <v>1288597</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1224251</v>
+        <v>1218432</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1357801</v>
+        <v>1351382</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1854113820129444</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1761528199184928</v>
+        <v>0.1753155066352005</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1953687862841896</v>
+        <v>0.1944451805699313</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>142768</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>119114</v>
+        <v>118428</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>167626</v>
+        <v>167691</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04182831683118261</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03489815666290388</v>
+        <v>0.03469715183470271</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04911126445188321</v>
+        <v>0.04913031340143888</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>141</v>
@@ -6809,19 +6809,19 @@
         <v>149134</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>125213</v>
+        <v>124734</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>172335</v>
+        <v>173831</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04216701144537745</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03540347873763103</v>
+        <v>0.03526787847712291</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04872700546405656</v>
+        <v>0.04914995892136593</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>276</v>
@@ -6830,19 +6830,19 @@
         <v>291902</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>255215</v>
+        <v>260010</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>324955</v>
+        <v>328955</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04200067505152812</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03672187096854961</v>
+        <v>0.03741180318986052</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04675658689120513</v>
+        <v>0.04733205035170818</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>995914</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>942984</v>
+        <v>940836</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1049715</v>
+        <v>1048541</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2917843436342954</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2762767750892611</v>
+        <v>0.2756474653227161</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3075470884039634</v>
+        <v>0.3072030964048833</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>993</v>
@@ -6880,19 +6880,19 @@
         <v>1076675</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1026123</v>
+        <v>1027009</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1134885</v>
+        <v>1135659</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3044248951514538</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2901316771906762</v>
+        <v>0.2903819448170684</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3208836119698414</v>
+        <v>0.3211022882791021</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1916</v>
@@ -6901,19 +6901,19 @@
         <v>2072589</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1990261</v>
+        <v>1992476</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2162214</v>
+        <v>2151945</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.298216990840282</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2863711724751494</v>
+        <v>0.286689769250539</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3111128569702035</v>
+        <v>0.3096352691997648</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>132987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114422</v>
+        <v>112477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153030</v>
+        <v>153010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3105548584808591</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2672000456906682</v>
+        <v>0.2626593142283171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.357357866560456</v>
+        <v>0.3573118574727316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -7268,19 +7268,19 @@
         <v>139232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120151</v>
+        <v>121482</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158231</v>
+        <v>158272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4011825022559661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3462029584409282</v>
+        <v>0.3500375612230071</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4559248680826115</v>
+        <v>0.4560417565552756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>250</v>
@@ -7289,19 +7289,19 @@
         <v>272220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>244742</v>
+        <v>245355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302525</v>
+        <v>299994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3511244068530703</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.315682360300925</v>
+        <v>0.3164726407938356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3902137573016008</v>
+        <v>0.3869488867807218</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>139842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120901</v>
+        <v>119023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160494</v>
+        <v>162937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3265610325035456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2823309250384525</v>
+        <v>0.2779440690322204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3747887794071674</v>
+        <v>0.3804946312712335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -7339,19 +7339,19 @@
         <v>114062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96876</v>
+        <v>97874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132858</v>
+        <v>132653</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3286567517038638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2791367392973621</v>
+        <v>0.2820120229285543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3828148001761907</v>
+        <v>0.3822251098604986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -7360,19 +7360,19 @@
         <v>253904</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>227492</v>
+        <v>227742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281756</v>
+        <v>279258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3274991831376156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2934320663604953</v>
+        <v>0.2937550181888132</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3634248701392891</v>
+        <v>0.3602028978297224</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>71037</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55647</v>
+        <v>55176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88341</v>
+        <v>87928</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1658864065694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1299486974923182</v>
+        <v>0.1288487572170741</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2062960737217608</v>
+        <v>0.205331145016981</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -7410,19 +7410,19 @@
         <v>42964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31600</v>
+        <v>31821</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56395</v>
+        <v>57323</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1237965628728551</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09105322805568343</v>
+        <v>0.09168783978186118</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1624953963991373</v>
+        <v>0.1651700463769418</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -7431,19 +7431,19 @@
         <v>114001</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96708</v>
+        <v>95581</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134419</v>
+        <v>136117</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1470448491957678</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.124739053962017</v>
+        <v>0.1232858229830555</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.173381799533059</v>
+        <v>0.1755717708637391</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>15358</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8806</v>
+        <v>8460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25608</v>
+        <v>24575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03586419322709619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0205635199070294</v>
+        <v>0.01975655564131458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05979966667644729</v>
+        <v>0.05738857212755918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -7481,19 +7481,19 @@
         <v>13118</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7707</v>
+        <v>7356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23163</v>
+        <v>22245</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03779730591913956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02220729007866541</v>
+        <v>0.02119440040903276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06674124785842479</v>
+        <v>0.06409507010759018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -7502,19 +7502,19 @@
         <v>28476</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19090</v>
+        <v>18735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40540</v>
+        <v>41266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03672955290767448</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02462362285182158</v>
+        <v>0.0241650345485305</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05229057097401054</v>
+        <v>0.05322756981257682</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>69001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54076</v>
+        <v>54466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85467</v>
+        <v>84627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1611335092190992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1262793124151839</v>
+        <v>0.1271904943128263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1995832694369566</v>
+        <v>0.1976216879584737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -7552,19 +7552,19 @@
         <v>37679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26984</v>
+        <v>26300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51814</v>
+        <v>51127</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1085668772481753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07775135638695611</v>
+        <v>0.07577992051480113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1492948238189902</v>
+        <v>0.1473160970387075</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -7573,19 +7573,19 @@
         <v>106680</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88160</v>
+        <v>89982</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126543</v>
+        <v>128666</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1376020079058719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1137131925083221</v>
+        <v>0.1160641509242253</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1632223880733985</v>
+        <v>0.1659606150813864</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>111367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93997</v>
+        <v>94104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131533</v>
+        <v>130944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2968279471917089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2505301497503049</v>
+        <v>0.2508157647444552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3505747476196011</v>
+        <v>0.3490046115901762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -7698,19 +7698,19 @@
         <v>124506</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105870</v>
+        <v>107883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143505</v>
+        <v>145610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3363796175220392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2860294756730821</v>
+        <v>0.2914688006177218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3877106802923593</v>
+        <v>0.393395952918735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -7719,19 +7719,19 @@
         <v>235873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211342</v>
+        <v>209555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>261829</v>
+        <v>263399</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3164696046471416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2835558144266545</v>
+        <v>0.2811593290494964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3512944628029229</v>
+        <v>0.3534008142413164</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>125625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105677</v>
+        <v>106680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143581</v>
+        <v>144721</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3348285703951475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2816614351505816</v>
+        <v>0.2843333975639737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.38268564973591</v>
+        <v>0.3857248517349363</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -7769,19 +7769,19 @@
         <v>131141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113644</v>
+        <v>112559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151241</v>
+        <v>150135</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3543047335226591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.307033623912285</v>
+        <v>0.3041026524851018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4086097687136348</v>
+        <v>0.405622415093465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -7790,19 +7790,19 @@
         <v>256765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>230306</v>
+        <v>232261</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>282520</v>
+        <v>286597</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3445005797313337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3089997077688171</v>
+        <v>0.3116237130929635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3790553567303571</v>
+        <v>0.3845259781729611</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>54782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42256</v>
+        <v>42501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69902</v>
+        <v>69223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1460100310255906</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1126259342635282</v>
+        <v>0.1132781363553484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1863103259398187</v>
+        <v>0.1845012195630683</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -7840,19 +7840,19 @@
         <v>52595</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40662</v>
+        <v>40116</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68073</v>
+        <v>68316</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1420970532804857</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1098571894143033</v>
+        <v>0.1083830543995609</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1839126438623956</v>
+        <v>0.18456986497749</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>103</v>
@@ -7861,19 +7861,19 @@
         <v>107377</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90443</v>
+        <v>88938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128893</v>
+        <v>128979</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1440668167982728</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1213469766544799</v>
+        <v>0.11932829057393</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1729354167588365</v>
+        <v>0.1730509582475142</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>13831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8031</v>
+        <v>7868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22700</v>
+        <v>23161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03686486178720359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02140622595376315</v>
+        <v>0.02097027303663307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06050251911950958</v>
+        <v>0.06173152196986539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -7911,19 +7911,19 @@
         <v>17588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10299</v>
+        <v>10526</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27587</v>
+        <v>27701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04751789791815312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02782408376120674</v>
+        <v>0.02843897710337955</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07453142632757923</v>
+        <v>0.07484064090715395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -7932,19 +7932,19 @@
         <v>31419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21064</v>
+        <v>21616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44373</v>
+        <v>46472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04215523978633453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02826185406003088</v>
+        <v>0.02900265343776172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05953562360772453</v>
+        <v>0.06235133871161798</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>69586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54383</v>
+        <v>55867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86472</v>
+        <v>86582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1854685896003493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1449481757974668</v>
+        <v>0.1489011422838757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.230473514544276</v>
+        <v>0.2307675808382331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -7982,19 +7982,19 @@
         <v>44305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33457</v>
+        <v>33634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59988</v>
+        <v>59629</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1197006977566629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09039070113913986</v>
+        <v>0.09086940111155005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1620717960428526</v>
+        <v>0.1610995156156499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -8003,19 +8003,19 @@
         <v>113892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93080</v>
+        <v>95289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133889</v>
+        <v>136100</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1528077590369173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1248848730614054</v>
+        <v>0.1278484225865047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1796377182961095</v>
+        <v>0.1826044329244354</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>112226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94315</v>
+        <v>93702</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132910</v>
+        <v>133431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2158134986197542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1813686234762323</v>
+        <v>0.1801902539805043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2555874318287841</v>
+        <v>0.256590005130615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -8128,19 +8128,19 @@
         <v>42175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31032</v>
+        <v>31209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55718</v>
+        <v>55224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2538807457380279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1868011033285125</v>
+        <v>0.1878660875821838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3354041821496865</v>
+        <v>0.3324289630425533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -8149,19 +8149,19 @@
         <v>154402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>133941</v>
+        <v>132529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>180564</v>
+        <v>176532</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2250300603828633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1952100020972493</v>
+        <v>0.1931524125803371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2631594655356772</v>
+        <v>0.2572836790909886</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>160719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139207</v>
+        <v>137676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182996</v>
+        <v>183189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3090654699730622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2676966683051276</v>
+        <v>0.2647536168392622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3519047332637807</v>
+        <v>0.3522764231732866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -8199,19 +8199,19 @@
         <v>61426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49243</v>
+        <v>49481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75863</v>
+        <v>75293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3697603187395286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2964246770429164</v>
+        <v>0.297859542334161</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4566665566895012</v>
+        <v>0.4532338707350096</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -8220,19 +8220,19 @@
         <v>222144</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>196332</v>
+        <v>198840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246925</v>
+        <v>247068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.323760460147179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.286141125508001</v>
+        <v>0.2897958394402286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3598764243547373</v>
+        <v>0.3600854920268076</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>82176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66323</v>
+        <v>66408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99340</v>
+        <v>100382</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1580261872483742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1275406021344103</v>
+        <v>0.1277031727231698</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1910328213574153</v>
+        <v>0.1930363394426335</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -8270,19 +8270,19 @@
         <v>19172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11881</v>
+        <v>11817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28934</v>
+        <v>28791</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1154064768555117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07152114221755219</v>
+        <v>0.0711339501061756</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1741717725855284</v>
+        <v>0.1733133290436938</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>98</v>
@@ -8291,19 +8291,19 @@
         <v>101348</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82663</v>
+        <v>84434</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121240</v>
+        <v>121021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1477074165754857</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1204754151010732</v>
+        <v>0.1230574955345173</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1766989505378425</v>
+        <v>0.1763800083400525</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>29109</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19991</v>
+        <v>20462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41773</v>
+        <v>41756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05597741533535109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03844380910357966</v>
+        <v>0.03934970809908319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08032996211833196</v>
+        <v>0.08029787529955559</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -8341,19 +8341,19 @@
         <v>6765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2907</v>
+        <v>2931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12845</v>
+        <v>13355</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04072236694922339</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01749613958307824</v>
+        <v>0.01764317054323068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07732449688702005</v>
+        <v>0.08039468991345559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -8362,19 +8362,19 @@
         <v>35874</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25229</v>
+        <v>25323</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50388</v>
+        <v>49819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05228397527090074</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03676983292163592</v>
+        <v>0.03690617092980326</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07343742879976545</v>
+        <v>0.07260784588724403</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>135785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116219</v>
+        <v>115253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156349</v>
+        <v>156437</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2611174288234583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2234908022307782</v>
+        <v>0.2216326776165904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3006627035273503</v>
+        <v>0.3008318389164699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -8412,19 +8412,19 @@
         <v>36585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25791</v>
+        <v>26970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47730</v>
+        <v>49085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2202300917177084</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1552513133460638</v>
+        <v>0.1623508483408416</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2873143715102449</v>
+        <v>0.2954751374690659</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>162</v>
@@ -8433,19 +8433,19 @@
         <v>172370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150227</v>
+        <v>150330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>196517</v>
+        <v>195698</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2512180876235713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2189451385349263</v>
+        <v>0.2190961641803965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2864100019515029</v>
+        <v>0.2852168967123194</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>218720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191286</v>
+        <v>191756</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248283</v>
+        <v>245616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1911207865573808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1671490153852508</v>
+        <v>0.1675591911928931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2169534577323019</v>
+        <v>0.2146233120941619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -8558,19 +8558,19 @@
         <v>218653</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192051</v>
+        <v>195190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245228</v>
+        <v>245060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2663200747259251</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.23391902980598</v>
+        <v>0.2377423974407053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2986893079383285</v>
+        <v>0.2984846590755084</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>421</v>
@@ -8579,19 +8579,19 @@
         <v>437372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>401546</v>
+        <v>402344</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>475434</v>
+        <v>476703</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2225337522023061</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2043054899338774</v>
+        <v>0.2047117017895783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.241899660186076</v>
+        <v>0.2425453181518872</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>367909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>331618</v>
+        <v>336628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>401171</v>
+        <v>399366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3214847257173364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2897727926556489</v>
+        <v>0.2941508870873018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3505496021567286</v>
+        <v>0.3489720140268234</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>264</v>
@@ -8629,19 +8629,19 @@
         <v>271523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>242850</v>
+        <v>244388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>300116</v>
+        <v>298733</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3307161702326826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2957923255954253</v>
+        <v>0.2976659719788479</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3655435549602746</v>
+        <v>0.3638587971355957</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>612</v>
@@ -8650,19 +8650,19 @@
         <v>639432</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>598434</v>
+        <v>595842</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>679206</v>
+        <v>682367</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3253409729834496</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3044814648732692</v>
+        <v>0.3031626260533047</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3455779613504955</v>
+        <v>0.3471864272706296</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>206356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>181934</v>
+        <v>179971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>233417</v>
+        <v>231071</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1803169069787205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1589768831504963</v>
+        <v>0.1572613216894808</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.203963509141372</v>
+        <v>0.2019138049094567</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>141</v>
@@ -8700,19 +8700,19 @@
         <v>143346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>123423</v>
+        <v>122029</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>166855</v>
+        <v>165392</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1745966512375487</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1503302331801699</v>
+        <v>0.1486325532052659</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2032303919146639</v>
+        <v>0.2014488654052054</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>338</v>
@@ -8721,19 +8721,19 @@
         <v>349702</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319845</v>
+        <v>316807</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>385816</v>
+        <v>386615</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1779273870583341</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1627362609071869</v>
+        <v>0.1611907082134104</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1963020817735832</v>
+        <v>0.1967087100977948</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>53725</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41496</v>
+        <v>39566</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70317</v>
+        <v>67676</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04694567592175764</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03626023597084609</v>
+        <v>0.03457375370044987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06144398353112156</v>
+        <v>0.05913651458475753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -8771,19 +8771,19 @@
         <v>34426</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23470</v>
+        <v>24040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47979</v>
+        <v>48072</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04193077967699094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02858662157891011</v>
+        <v>0.02928083873509028</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05843896739294316</v>
+        <v>0.05855229059644831</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -8792,19 +8792,19 @@
         <v>88151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71264</v>
+        <v>71176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107228</v>
+        <v>106251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04485080551425268</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03625873071772242</v>
+        <v>0.03621402655228628</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05455732620689054</v>
+        <v>0.05406010357107467</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>297697</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>266142</v>
+        <v>269287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>328184</v>
+        <v>329315</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2601319048248046</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.232559496846921</v>
+        <v>0.2353069360604578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2867727673302525</v>
+        <v>0.2877608614812607</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>145</v>
@@ -8842,19 +8842,19 @@
         <v>153067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>130883</v>
+        <v>130752</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176837</v>
+        <v>181061</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1864363241268527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1594165634224455</v>
+        <v>0.1592563023648305</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2153882448616015</v>
+        <v>0.220533150114008</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>435</v>
@@ -8863,19 +8863,19 @@
         <v>450763</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>413154</v>
+        <v>414784</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>492648</v>
+        <v>488707</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2293470822416576</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2102115625344446</v>
+        <v>0.2110407954582448</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2506578801591058</v>
+        <v>0.2486525090287457</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>85041</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68539</v>
+        <v>68898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104262</v>
+        <v>104532</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1370073934505023</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1104206706957417</v>
+        <v>0.1109987988067277</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1679729157680063</v>
+        <v>0.168408834443834</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>144</v>
@@ -8988,19 +8988,19 @@
         <v>152431</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131816</v>
+        <v>131306</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>174978</v>
+        <v>177677</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2064778301572006</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1785528648630517</v>
+        <v>0.1778622640974571</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2370185541406467</v>
+        <v>0.240675180934793</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>223</v>
@@ -9009,19 +9009,19 @@
         <v>237472</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>208601</v>
+        <v>210097</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>265504</v>
+        <v>267795</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1747469288918745</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1535013167361091</v>
+        <v>0.1546026084944914</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1953746829601252</v>
+        <v>0.1970604243594325</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>165732</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>144877</v>
+        <v>146163</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>188782</v>
+        <v>189282</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2670053013253612</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2334065212735062</v>
+        <v>0.2354778684781705</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3041404629688659</v>
+        <v>0.3049468666417681</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -9059,19 +9059,19 @@
         <v>197655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>176131</v>
+        <v>174952</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>223441</v>
+        <v>224101</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.267736309946794</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.23858062811054</v>
+        <v>0.2369838838238982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3026656401090425</v>
+        <v>0.3035588573274554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>354</v>
@@ -9080,19 +9080,19 @@
         <v>363387</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>329076</v>
+        <v>331933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>397621</v>
+        <v>396859</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2674024188200012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2421546103803182</v>
+        <v>0.2442569718184366</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2925939940158164</v>
+        <v>0.2920336893657317</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>90839</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72431</v>
+        <v>74185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109043</v>
+        <v>110061</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.146347183965898</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1166905785019492</v>
+        <v>0.1195178421540532</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1756749865784926</v>
+        <v>0.1773159184105487</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -9130,19 +9130,19 @@
         <v>108512</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>90774</v>
+        <v>89604</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127811</v>
+        <v>127818</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1469864403979853</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1229596634522295</v>
+        <v>0.1213738816226198</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1731279095366192</v>
+        <v>0.173138167810833</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>191</v>
@@ -9151,19 +9151,19 @@
         <v>199350</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>174539</v>
+        <v>173917</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>227655</v>
+        <v>228216</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1466944574525574</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1284363767346262</v>
+        <v>0.127978982695114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1675224532565457</v>
+        <v>0.1679355288336687</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>44276</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33241</v>
+        <v>32357</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>59052</v>
+        <v>60250</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07133193433576222</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05355425779450199</v>
+        <v>0.05212932588098754</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09513641581508533</v>
+        <v>0.09706754672723279</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -9201,19 +9201,19 @@
         <v>40071</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28915</v>
+        <v>28601</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53757</v>
+        <v>55029</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05427855301781166</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03916787673289786</v>
+        <v>0.03874185514244254</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07281750416726551</v>
+        <v>0.07454051218959754</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>81</v>
@@ -9222,19 +9222,19 @@
         <v>84347</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68139</v>
+        <v>66700</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>105044</v>
+        <v>102850</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06206775349634659</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05014073685318489</v>
+        <v>0.04908225608765319</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07729794245372942</v>
+        <v>0.07568310590988678</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>234818</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>213391</v>
+        <v>210953</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>260650</v>
+        <v>259615</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3783081869224763</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3437876212869401</v>
+        <v>0.3398590536855761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4199245608908084</v>
+        <v>0.4182577228199152</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>221</v>
@@ -9272,19 +9272,19 @@
         <v>239576</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>215029</v>
+        <v>215567</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>265853</v>
+        <v>267110</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3245208664802085</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2912711203844157</v>
+        <v>0.2920001404043995</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3601157047330406</v>
+        <v>0.361817515865591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>447</v>
@@ -9293,19 +9293,19 @@
         <v>474394</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>438614</v>
+        <v>440326</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>510053</v>
+        <v>512146</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3490884413392203</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3227595859822503</v>
+        <v>0.3240192404573659</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3753288139531868</v>
+        <v>0.3768686045839027</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>62463</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>48793</v>
+        <v>49369</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>78135</v>
+        <v>77268</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2191857879507204</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1712172002666495</v>
+        <v>0.1732378693461671</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2741792368632254</v>
+        <v>0.2711364203788137</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>186</v>
@@ -9418,19 +9418,19 @@
         <v>198161</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>173115</v>
+        <v>171177</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>227138</v>
+        <v>224806</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1837316926775444</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1605092011081262</v>
+        <v>0.1587124310683958</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2105986245627851</v>
+        <v>0.2084364213439872</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>246</v>
@@ -9439,19 +9439,19 @@
         <v>260625</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>231155</v>
+        <v>230304</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>288424</v>
+        <v>291556</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1911417104171657</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1695286493472232</v>
+        <v>0.1689044887423882</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2115295437518072</v>
+        <v>0.213826466076942</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>100973</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>83360</v>
+        <v>83969</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>116450</v>
+        <v>118435</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3543169981395147</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2925141249563022</v>
+        <v>0.2946482022860242</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4086277817222325</v>
+        <v>0.4155919685522887</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>312</v>
@@ -9489,19 +9489,19 @@
         <v>335050</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>302933</v>
+        <v>302803</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>367693</v>
+        <v>366030</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3106523598970505</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2808743053025622</v>
+        <v>0.2807538853492679</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3409188128185787</v>
+        <v>0.3393769801410296</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>408</v>
@@ -9510,19 +9510,19 @@
         <v>436023</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>402674</v>
+        <v>403102</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>470085</v>
+        <v>474594</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3197784070145355</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2953202936156227</v>
+        <v>0.2956343712366681</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3447594225941411</v>
+        <v>0.3480665350839959</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>51436</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>39340</v>
+        <v>39173</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65070</v>
+        <v>65053</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1804905329391774</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1380468071022651</v>
+        <v>0.1374600567517334</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2283328951796725</v>
+        <v>0.228273062274631</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>151</v>
@@ -9560,19 +9560,19 @@
         <v>160861</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>137976</v>
+        <v>137504</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>185138</v>
+        <v>184731</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1491476140143897</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1279288869939757</v>
+        <v>0.1274912537926131</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1716567288219346</v>
+        <v>0.1712798516826014</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>200</v>
@@ -9581,19 +9581,19 @@
         <v>212297</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>185633</v>
+        <v>185153</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>239432</v>
+        <v>242057</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1556983829299318</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1361432453323044</v>
+        <v>0.1357912875146149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1755990478749312</v>
+        <v>0.1775244930593935</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>12710</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6820</v>
+        <v>7088</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21227</v>
+        <v>22258</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04460084594310021</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02393204483051046</v>
+        <v>0.02487218967383261</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07448636969604003</v>
+        <v>0.07810558084785449</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -9631,19 +9631,19 @@
         <v>60163</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45861</v>
+        <v>45785</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>75961</v>
+        <v>78400</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05578245092227912</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04252121350511438</v>
+        <v>0.0424511616683273</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07042975285294505</v>
+        <v>0.07269115641466786</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>68</v>
@@ -9652,19 +9652,19 @@
         <v>72874</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>57113</v>
+        <v>57338</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>93102</v>
+        <v>91924</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05344546021317362</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04188653230497458</v>
+        <v>0.0420514432920535</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06828111171355737</v>
+        <v>0.06741680242123854</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>57396</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44960</v>
+        <v>43991</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>74075</v>
+        <v>73246</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2014058350274873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1577645092443687</v>
+        <v>0.1543662194793547</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2599300036406986</v>
+        <v>0.2570212070070126</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>284</v>
@@ -9702,19 +9702,19 @@
         <v>324301</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>293352</v>
+        <v>290587</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>358617</v>
+        <v>357874</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3006858824887363</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2719910017000454</v>
+        <v>0.2694276262831836</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3325038120808527</v>
+        <v>0.331814800078872</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>337</v>
@@ -9723,19 +9723,19 @@
         <v>381697</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>348309</v>
+        <v>346407</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>414490</v>
+        <v>416080</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2799360394251934</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2554496785906047</v>
+        <v>0.2540544091122604</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3039865521202664</v>
+        <v>0.3051526061828655</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>722806</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>676845</v>
+        <v>675993</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>770551</v>
+        <v>771567</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.214258367701937</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2006343263676433</v>
+        <v>0.2003818220970787</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2284112332108595</v>
+        <v>0.2287125127057119</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>824</v>
@@ -9848,19 +9848,19 @@
         <v>875158</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>820003</v>
+        <v>819389</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>930527</v>
+        <v>928193</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2485463878920511</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2328822275650822</v>
+        <v>0.232707736402477</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2642710833395789</v>
+        <v>0.2636082787386216</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1502</v>
@@ -9869,19 +9869,19 @@
         <v>1597964</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1529013</v>
+        <v>1523682</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1676632</v>
+        <v>1668128</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2317693543123424</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2217686936064137</v>
+        <v>0.2209955148321348</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2431794395404192</v>
+        <v>0.2419460507002847</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>1060799</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1005293</v>
+        <v>1009156</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1112434</v>
+        <v>1120807</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3144484330664586</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2979951021366543</v>
+        <v>0.299140042242771</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3297544796446287</v>
+        <v>0.3322363093761971</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1064</v>
@@ -9919,19 +9919,19 @@
         <v>1110855</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1060323</v>
+        <v>1057798</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1165011</v>
+        <v>1166602</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3154846743469163</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3011334592947215</v>
+        <v>0.3004162306911649</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3308649633917137</v>
+        <v>0.3313166959695872</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2075</v>
@@ -9940,19 +9940,19 @@
         <v>2171654</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2096384</v>
+        <v>2090745</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2249463</v>
+        <v>2255188</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3149776443503599</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.304060360179718</v>
+        <v>0.3032424718440682</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3262631073190426</v>
+        <v>0.3270934433199069</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>556625</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>514003</v>
+        <v>509913</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>600278</v>
+        <v>599698</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1649980843240094</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1523639446388848</v>
+        <v>0.1511516126770718</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1779380502906031</v>
+        <v>0.1777659649466592</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>509</v>
@@ -9990,19 +9990,19 @@
         <v>527450</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>488183</v>
+        <v>485735</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>570576</v>
+        <v>571308</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1497967017549564</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1386447517618853</v>
+        <v>0.1379495501505063</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1620444082341059</v>
+        <v>0.1622522407956801</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1038</v>
@@ -10011,19 +10011,19 @@
         <v>1084075</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1026481</v>
+        <v>1028274</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1145865</v>
+        <v>1145101</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1572346962616364</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1488812951956769</v>
+        <v>0.1491412707635704</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1661967764541294</v>
+        <v>0.1660859453288603</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>169010</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>147182</v>
+        <v>144132</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>196201</v>
+        <v>196380</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05009890814809916</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04362863918981365</v>
+        <v>0.04272445593353447</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05815913158048166</v>
+        <v>0.05821212137811856</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>163</v>
@@ -10061,19 +10061,19 @@
         <v>172131</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>148267</v>
+        <v>149077</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>202700</v>
+        <v>201354</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04888538189347399</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04210804833057634</v>
+        <v>0.04233815843119396</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05756698800593445</v>
+        <v>0.05718486318801395</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>326</v>
@@ -10082,19 +10082,19 @@
         <v>341140</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>305267</v>
+        <v>304233</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>375907</v>
+        <v>377394</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04947915693825113</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0442760416550828</v>
+        <v>0.04412601215032354</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05452177918478146</v>
+        <v>0.0547373820445776</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>864284</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>816302</v>
+        <v>812241</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>919368</v>
+        <v>915838</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2561962067594959</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2419731583831774</v>
+        <v>0.240769291046241</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2725246880475979</v>
+        <v>0.2714782253118269</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>757</v>
@@ -10132,19 +10132,19 @@
         <v>835512</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>782170</v>
+        <v>785410</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>885718</v>
+        <v>889104</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2372868541126021</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2221375279251987</v>
+        <v>0.2230575926088604</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2515453599007349</v>
+        <v>0.2525069716520555</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1588</v>
@@ -10153,19 +10153,19 @@
         <v>1699796</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1623332</v>
+        <v>1627915</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1770349</v>
+        <v>1768486</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2465391481374102</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2354488147105935</v>
+        <v>0.2361134654401819</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2567721931159054</v>
+        <v>0.2565019533141878</v>
       </c>
     </row>
     <row r="45">
